--- a/Startup Checklist.xlsx
+++ b/Startup Checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\be.wood\Documents\cert stuff\Common Criteria\iTCs\Tools WG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\be.wood\Documents\GitHub\itc-wgtools\iTC-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="85">
   <si>
     <t>To Do</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Create IT branch</t>
   </si>
   <si>
-    <t>Review New Issue Templates</t>
-  </si>
-  <si>
     <t>Setup Projects</t>
   </si>
   <si>
@@ -154,41 +151,143 @@
     <t>Edit CC Portal Page URL</t>
   </si>
   <si>
-    <t>Remove Guidance section on index page</t>
-  </si>
-  <si>
-    <t>Add links to iTC docs that have been created on library</t>
-  </si>
-  <si>
     <t>Edit PP-config to add components (i.e. PP-Modules or base PPs)</t>
   </si>
   <si>
     <t>Remove Guidance section on PP-config</t>
   </si>
   <si>
-    <t>Edit Public Review Process</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
     <t>could be done later</t>
   </si>
   <si>
-    <t>Determine URL for Technical Decisions</t>
-  </si>
-  <si>
-    <t>Create page</t>
-  </si>
-  <si>
     <t>Update Request for IT with this URL</t>
+  </si>
+  <si>
+    <t>https://itc-wgtools.github.io/admin-guide/index.html#_github</t>
+  </si>
+  <si>
+    <t>https://itc-wgtools.github.io/user-guide/userguide.html#_github_account</t>
+  </si>
+  <si>
+    <t>https://github.com/settings/tokens</t>
+  </si>
+  <si>
+    <t>https://itc-wgtools.github.io/admin-guide/index.html#_organization_setup</t>
+  </si>
+  <si>
+    <t>https://itc-wgtools.github.io/admin-guide/index.html#_organization_owners</t>
+  </si>
+  <si>
+    <t>https://itc-wgtools.github.io/admin-guide/index.html#_github_teams</t>
+  </si>
+  <si>
+    <t>https://itc-wgtools.github.io/admin-guide/index.html#_installing_ruby</t>
+  </si>
+  <si>
+    <t>gem install octokit</t>
+  </si>
+  <si>
+    <t>URL or Command</t>
+  </si>
+  <si>
+    <t>https://itc-wgtools.github.io/admin-guide/index.html#_installing_the_asciidoctor_toolchain</t>
+  </si>
+  <si>
+    <t>https://github.com/itc-wgtools/itc_gentools</t>
+  </si>
+  <si>
+    <t>https://itc-wgtools.github.io/admin-guide/index.html#_github_repositories</t>
+  </si>
+  <si>
+    <t>https://itc-wgtools.github.io/admin-guide/index.html#_repository_setup</t>
+  </si>
+  <si>
+    <t>https://itc-wgtools.github.io/admin-guide/index.html#_repository_branches</t>
+  </si>
+  <si>
+    <t>https://itc-wgtools.github.io/admin-guide/index.html#_branch_protection_rules</t>
+  </si>
+  <si>
+    <t>https://github.com/itc-wgtools/repo-labels</t>
+  </si>
+  <si>
+    <t>https://itc-wgtools.github.io/admin-guide/index.html#_repository_projects</t>
+  </si>
+  <si>
+    <t>https://itc-wgtools.github.io/admin-guide/index.html#_installing_project_bot</t>
+  </si>
+  <si>
+    <t>https://itc-wgtools.github.io/admin-guide/index.html#_creating_projects</t>
+  </si>
+  <si>
+    <t>https://itc-wgtools.github.io/admin-guide/index.html#_setting_the_project_automation</t>
+  </si>
+  <si>
+    <t>https://itc-wgtools.github.io/admin-guide/index.html#_issue_templates</t>
+  </si>
+  <si>
+    <t>https://itc-wgtools.github.io/admin-guide/index.html#_github_backups</t>
+  </si>
+  <si>
+    <t>Review New Issue Templates (setup URL in TD)</t>
+  </si>
+  <si>
+    <t>Remove Guidance section</t>
+  </si>
+  <si>
+    <t>Edit document links</t>
+  </si>
+  <si>
+    <t>Library Page</t>
+  </si>
+  <si>
+    <t>Index page</t>
+  </si>
+  <si>
+    <t>Add links to governing docs</t>
+  </si>
+  <si>
+    <t>Link IT submission form to GitHub New Issue</t>
+  </si>
+  <si>
+    <t>Remove Note section</t>
+  </si>
+  <si>
+    <t>Add any additional docs as needed</t>
+  </si>
+  <si>
+    <t>Public Review Page</t>
+  </si>
+  <si>
+    <t>Edit review process</t>
+  </si>
+  <si>
+    <t>Edit PR status page if in active PR phase</t>
+  </si>
+  <si>
+    <t>Add link to main page if this is the case</t>
+  </si>
+  <si>
+    <t>Allowed Components Page</t>
+  </si>
+  <si>
+    <t>this is under Docs</t>
+  </si>
+  <si>
+    <t>Edit PR Template if in active PR phase</t>
+  </si>
+  <si>
+    <t>Technical Decisions Page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,6 +299,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,10 +338,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -252,39 +360,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -592,76 +674,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="3" width="88.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -669,196 +773,268 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>0</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="C27" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="6" t="s">
+      <c r="C28" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -866,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -874,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -882,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -898,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -906,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -914,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -922,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -930,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -938,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -946,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -954,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -962,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -970,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -978,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -989,12 +1165,43 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B47">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$A2="Completed"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" location="_github" display="https://itc-wgtools.github.io/admin-guide/index.html - _github"/>
+    <hyperlink ref="C3" r:id="rId2" location="_github_account" display="https://itc-wgtools.github.io/user-guide/userguide.html - _github_account"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4" location="_organization_setup"/>
+    <hyperlink ref="C6" r:id="rId5" location="_organization_owners"/>
+    <hyperlink ref="C7" r:id="rId6" location="_github_teams"/>
+    <hyperlink ref="C9" r:id="rId7" location="_installing_ruby"/>
+    <hyperlink ref="C11" r:id="rId8" location="_installing_the_asciidoctor_toolchain"/>
+    <hyperlink ref="C12" r:id="rId9"/>
+    <hyperlink ref="C13" r:id="rId10" location="_github_repositories" display="https://itc-wgtools.github.io/admin-guide/index.html - _github_repositories"/>
+    <hyperlink ref="C14" r:id="rId11" location="_repository_setup" display="https://itc-wgtools.github.io/admin-guide/index.html - _repository_setup"/>
+    <hyperlink ref="C17" r:id="rId12" location="_repository_setup" display="https://itc-wgtools.github.io/admin-guide/index.html - _repository_setup"/>
+    <hyperlink ref="C20" r:id="rId13" location="_repository_setup" display="https://itc-wgtools.github.io/admin-guide/index.html - _repository_setup"/>
+    <hyperlink ref="C15" r:id="rId14" location="_repository_branches" display="https://itc-wgtools.github.io/admin-guide/index.html - _repository_branches"/>
+    <hyperlink ref="C18" r:id="rId15" location="_repository_branches" display="https://itc-wgtools.github.io/admin-guide/index.html - _repository_branches"/>
+    <hyperlink ref="C21" r:id="rId16" location="_repository_branches" display="https://itc-wgtools.github.io/admin-guide/index.html - _repository_branches"/>
+    <hyperlink ref="C22" r:id="rId17" location="_repository_branches" display="https://itc-wgtools.github.io/admin-guide/index.html - _repository_branches"/>
+    <hyperlink ref="C16" r:id="rId18" location="_branch_protection_rules" display="https://itc-wgtools.github.io/admin-guide/index.html - _branch_protection_rules"/>
+    <hyperlink ref="C19" r:id="rId19" location="_branch_protection_rules" display="https://itc-wgtools.github.io/admin-guide/index.html - _branch_protection_rules"/>
+    <hyperlink ref="C23" r:id="rId20" location="_branch_protection_rules" display="https://itc-wgtools.github.io/admin-guide/index.html - _branch_protection_rules"/>
+    <hyperlink ref="C24" r:id="rId21"/>
+    <hyperlink ref="C25" r:id="rId22" location="_repository_projects" display="https://itc-wgtools.github.io/admin-guide/index.html - _repository_projects"/>
+    <hyperlink ref="C26" r:id="rId23" location="_installing_project_bot" display="https://itc-wgtools.github.io/admin-guide/index.html - _installing_project_bot"/>
+    <hyperlink ref="C27" r:id="rId24" location="_creating_projects" display="https://itc-wgtools.github.io/admin-guide/index.html - _creating_projects"/>
+    <hyperlink ref="C29" r:id="rId25" location="_creating_projects" display="https://itc-wgtools.github.io/admin-guide/index.html - _creating_projects"/>
+    <hyperlink ref="C28" r:id="rId26" location="_setting_the_project_automation" display="https://itc-wgtools.github.io/admin-guide/index.html - _setting_the_project_automation"/>
+    <hyperlink ref="C30" r:id="rId27" location="_setting_the_project_automation" display="https://itc-wgtools.github.io/admin-guide/index.html - _setting_the_project_automation"/>
+    <hyperlink ref="C31" r:id="rId28" location="_issue_templates" display="https://itc-wgtools.github.io/admin-guide/index.html - _issue_templates"/>
+    <hyperlink ref="C32" r:id="rId29" location="_github_backups" display="https://itc-wgtools.github.io/admin-guide/index.html - _github_backups"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId30"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -1012,17 +1219,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
@@ -1033,7 +1240,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1041,61 +1248,58 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>42</v>
+      <c r="B3" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
-        <v>43</v>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>44</v>
+      <c r="B5" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
+      <c r="B6" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
+      <c r="B7" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
-        <v>49</v>
+      <c r="B8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1103,7 +1307,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1111,13 +1318,111 @@
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
-      </c>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B10">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="B2:B15">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$A2="Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B21">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$A16="Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1129,7 +1434,7 @@
           <x14:formula1>
             <xm:f>('Sheet settings'!$A$4:$A$5)</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A10</xm:sqref>
+          <xm:sqref>A2:A19</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Startup Checklist.xlsx
+++ b/Startup Checklist.xlsx
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="GitHub" sheetId="1" r:id="rId1"/>
-    <sheet name="Website" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet settings" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Docs" sheetId="4" r:id="rId2"/>
+    <sheet name="Website" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet settings" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="100">
   <si>
     <t>To Do</t>
   </si>
@@ -124,12 +125,6 @@
     <t>Configure backup</t>
   </si>
   <si>
-    <t>Configure GitHub Docs</t>
-  </si>
-  <si>
-    <t>Template Repository</t>
-  </si>
-  <si>
     <t>README</t>
   </si>
   <si>
@@ -139,15 +134,9 @@
     <t>Files_README</t>
   </si>
   <si>
-    <t>Templates (update iTC name info)</t>
-  </si>
-  <si>
     <t>Admin Repository</t>
   </si>
   <si>
-    <t>Website Repository</t>
-  </si>
-  <si>
     <t>Edit CC Portal Page URL</t>
   </si>
   <si>
@@ -281,6 +270,63 @@
   </si>
   <si>
     <t>Technical Decisions Page</t>
+  </si>
+  <si>
+    <t>Edits</t>
+  </si>
+  <si>
+    <t>Repo/File</t>
+  </si>
+  <si>
+    <t>CC Portal page</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Edit iTC variable names</t>
+  </si>
+  <si>
+    <t>Intro paragraph, sponsors/schemes, tech type, work items (could be a pointer to somewhere else)</t>
+  </si>
+  <si>
+    <t>iTC-ToR</t>
+  </si>
+  <si>
+    <t>product category, schemes, check voting section</t>
+  </si>
+  <si>
+    <t>delete this file</t>
+  </si>
+  <si>
+    <t>README-template</t>
+  </si>
+  <si>
+    <t>edit this file to introduce the iTC and what is in the repository, change name to README.adoc</t>
+  </si>
+  <si>
+    <t>Public_Review_Draft-template</t>
+  </si>
+  <si>
+    <t>Review for content, check process acceptability</t>
+  </si>
+  <si>
+    <t>Review_Process</t>
+  </si>
+  <si>
+    <t>Templates Repository</t>
+  </si>
+  <si>
+    <t>LICENSE</t>
+  </si>
+  <si>
+    <t>check if acceptable for MIT license on the docs</t>
+  </si>
+  <si>
+    <t>code_of_conduct</t>
+  </si>
+  <si>
+    <t>Review</t>
   </si>
 </sst>
 </file>
@@ -366,7 +412,70 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -677,8 +786,8 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +805,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -707,7 +816,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -718,7 +827,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -729,7 +838,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -740,7 +849,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -751,7 +860,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -762,7 +871,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -781,7 +890,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -792,7 +901,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -803,7 +912,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -814,7 +923,7 @@
         <v>17</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -825,7 +934,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -836,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -847,7 +956,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -858,7 +967,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -869,7 +978,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -880,7 +989,7 @@
         <v>19</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -891,7 +1000,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -902,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -913,7 +1022,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -924,7 +1033,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -935,7 +1044,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -946,7 +1055,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -957,7 +1066,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -968,7 +1077,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -979,7 +1088,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -990,7 +1099,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1001,7 +1110,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1012,7 +1121,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1020,10 +1129,10 @@
         <v>0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1034,7 +1143,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1054,108 +1163,43 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="B37" s="4"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="B38" s="4"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B39" s="4"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B40" s="4"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="B42" s="4"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>35</v>
-      </c>
+      <c r="B43" s="4"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>36</v>
-      </c>
+      <c r="B44" s="4"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B45" s="4"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="B47" s="4"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" s="4"/>
@@ -1165,7 +1209,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B47">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="11" priority="1">
       <formula>$A2="Completed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1219,11 +1263,214 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
+    <col min="3" max="3" width="88.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:C35">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>$A2="Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>('Sheet settings'!$A$4:$A$5)</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1240,7 +1487,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1248,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1256,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1264,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1272,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1280,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1288,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1296,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1307,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1318,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1326,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1337,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1345,10 +1592,10 @@
         <v>0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1356,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1367,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1375,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1386,10 +1633,10 @@
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1397,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1405,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1416,12 +1663,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B15">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>$A2="Completed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>$A16="Completed"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1442,7 +1689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:A5"/>
   <sheetViews>
